--- a/public/reportes/Auxilio de Alimentación Semanal V-02.xlsx
+++ b/public/reportes/Auxilio de Alimentación Semanal V-02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{655E1BAC-16D3-479D-B5DF-70D13D859C60}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{4AA90A00-8539-403D-AB8A-5012DA64A2F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>NOMBRE COMPLETO</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE FORMACIÓN</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>FIRMA</t>
-  </si>
   <si>
     <r>
       <rPr>
@@ -72,15 +54,41 @@
 Marzo de 2015</t>
   </si>
   <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>NOMBRE COMPLETO</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE FORMACIÓN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>NÚMERO DE FICHAS</t>
+  </si>
+  <si>
+    <t>FIRMA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,21 +146,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -174,25 +188,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>423901</xdr:colOff>
+      <xdr:colOff>414375</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>981075</xdr:rowOff>
+      <xdr:rowOff>971550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72F19A1-47A2-476E-9B7F-F7012860D01B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6601CB98-B4AE-40A6-8821-5D31FA75352A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -214,7 +228,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295276" y="76200"/>
+          <a:off x="619125" y="66675"/>
           <a:ext cx="890625" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -523,64 +537,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00F0369-02CB-4A0F-BE51-D8E3F42190A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8200FAB0-FD3C-4B76-A578-9F4ED14BE2C4}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="56.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="1" max="2" width="16.42578125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="46.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -591,7 +606,7 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>